--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V6.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V6.xlsx
@@ -17,14 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">`</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1309,9 +1301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>282960</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1321,7 +1313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3768840" y="676080"/>
-          <a:ext cx="241920" cy="202320"/>
+          <a:ext cx="241560" cy="201960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1526,9 +1518,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
-      <c r="N7" s="27" t="s">
-        <v>0</v>
-      </c>
+      <c r="N7" s="27"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V6.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V6.xlsx
@@ -25,7 +25,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -67,14 +67,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -638,7 +630,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="143">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1059,7 +1051,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1080,10 +1072,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1301,9 +1289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>282960</xdr:colOff>
+      <xdr:colOff>282600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1313,7 +1301,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3768840" y="676080"/>
-          <a:ext cx="241560" cy="201960"/>
+          <a:ext cx="241200" cy="201600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1349,7 +1337,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.2890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="5.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="5.28"/>
   </cols>
@@ -1988,7 +1976,7 @@
       <c r="F26" s="99"/>
       <c r="G26" s="99"/>
       <c r="H26" s="99"/>
-      <c r="I26" s="111"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="67"/>
       <c r="K26" s="72"/>
       <c r="L26" s="73"/>
@@ -2084,11 +2072,11 @@
       <c r="B30" s="54"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
-      <c r="E30" s="112"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="99"/>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
-      <c r="I30" s="113"/>
+      <c r="I30" s="112"/>
       <c r="J30" s="67"/>
       <c r="K30" s="72"/>
       <c r="L30" s="73"/>
@@ -2109,7 +2097,7 @@
       <c r="B31" s="54"/>
       <c r="C31" s="41"/>
       <c r="D31" s="106"/>
-      <c r="E31" s="114"/>
+      <c r="E31" s="113"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
@@ -2134,7 +2122,7 @@
       <c r="B32" s="54"/>
       <c r="C32" s="41"/>
       <c r="D32" s="106"/>
-      <c r="E32" s="114"/>
+      <c r="E32" s="113"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
@@ -2159,11 +2147,11 @@
       <c r="B33" s="54"/>
       <c r="C33" s="76"/>
       <c r="D33" s="77"/>
-      <c r="E33" s="115"/>
+      <c r="E33" s="114"/>
       <c r="F33" s="109"/>
       <c r="G33" s="109"/>
       <c r="H33" s="109"/>
-      <c r="I33" s="116"/>
+      <c r="I33" s="115"/>
       <c r="J33" s="103"/>
       <c r="K33" s="36"/>
       <c r="L33" s="37"/>
@@ -2184,62 +2172,62 @@
       <c r="B34" s="54"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="99"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="113"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="112"/>
       <c r="J34" s="71"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="121"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="119"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="119"/>
+      <c r="V34" s="119"/>
+      <c r="W34" s="120"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="41"/>
       <c r="B35" s="54"/>
       <c r="C35" s="41"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="114"/>
+      <c r="E35" s="113"/>
       <c r="F35" s="45"/>
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
       <c r="I35" s="66"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="124"/>
-      <c r="T35" s="124"/>
-      <c r="U35" s="124"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="125"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="123"/>
+      <c r="U35" s="123"/>
+      <c r="V35" s="123"/>
+      <c r="W35" s="124"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="41"/>
       <c r="B36" s="54"/>
       <c r="C36" s="41"/>
       <c r="D36" s="106"/>
-      <c r="E36" s="114"/>
+      <c r="E36" s="113"/>
       <c r="F36" s="45"/>
       <c r="G36" s="45"/>
       <c r="H36" s="45"/>
       <c r="I36" s="66"/>
-      <c r="J36" s="126"/>
+      <c r="J36" s="125"/>
       <c r="K36" s="48"/>
       <c r="L36" s="49"/>
       <c r="M36" s="49"/>
@@ -2259,36 +2247,36 @@
       <c r="B37" s="54"/>
       <c r="C37" s="76"/>
       <c r="D37" s="77"/>
-      <c r="E37" s="115"/>
+      <c r="E37" s="114"/>
       <c r="F37" s="109"/>
       <c r="G37" s="109"/>
       <c r="H37" s="109"/>
-      <c r="I37" s="116"/>
+      <c r="I37" s="115"/>
       <c r="J37" s="81"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="116"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="127"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="127"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="127"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="115"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="41"/>
       <c r="B38" s="54"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
-      <c r="E38" s="129"/>
+      <c r="E38" s="128"/>
       <c r="F38" s="73"/>
       <c r="G38" s="73"/>
       <c r="H38" s="73"/>
-      <c r="I38" s="113"/>
+      <c r="I38" s="112"/>
       <c r="J38" s="67"/>
       <c r="K38" s="72"/>
       <c r="L38" s="73"/>
@@ -2309,7 +2297,7 @@
       <c r="B39" s="54"/>
       <c r="C39" s="41"/>
       <c r="D39" s="106"/>
-      <c r="E39" s="130"/>
+      <c r="E39" s="129"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
@@ -2334,7 +2322,7 @@
       <c r="B40" s="54"/>
       <c r="C40" s="41"/>
       <c r="D40" s="106"/>
-      <c r="E40" s="114"/>
+      <c r="E40" s="113"/>
       <c r="F40" s="45"/>
       <c r="G40" s="45"/>
       <c r="H40" s="46"/>
@@ -2359,11 +2347,11 @@
       <c r="B41" s="54"/>
       <c r="C41" s="76"/>
       <c r="D41" s="77"/>
-      <c r="E41" s="115"/>
+      <c r="E41" s="114"/>
       <c r="F41" s="109"/>
       <c r="G41" s="109"/>
       <c r="H41" s="86"/>
-      <c r="I41" s="116"/>
+      <c r="I41" s="115"/>
       <c r="J41" s="103"/>
       <c r="K41" s="36"/>
       <c r="L41" s="37"/>
@@ -2384,11 +2372,11 @@
       <c r="B42" s="54"/>
       <c r="C42" s="67"/>
       <c r="D42" s="67"/>
-      <c r="E42" s="129"/>
+      <c r="E42" s="128"/>
       <c r="F42" s="73"/>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="113"/>
+      <c r="I42" s="112"/>
       <c r="J42" s="67"/>
       <c r="K42" s="72"/>
       <c r="L42" s="73"/>
@@ -2409,7 +2397,7 @@
       <c r="B43" s="54"/>
       <c r="C43" s="41"/>
       <c r="D43" s="106"/>
-      <c r="E43" s="130"/>
+      <c r="E43" s="129"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
@@ -2434,7 +2422,7 @@
       <c r="B44" s="54"/>
       <c r="C44" s="41"/>
       <c r="D44" s="106"/>
-      <c r="E44" s="114"/>
+      <c r="E44" s="113"/>
       <c r="F44" s="45"/>
       <c r="G44" s="45"/>
       <c r="H44" s="46"/>
@@ -2459,11 +2447,11 @@
       <c r="B45" s="54"/>
       <c r="C45" s="76"/>
       <c r="D45" s="77"/>
-      <c r="E45" s="115"/>
+      <c r="E45" s="114"/>
       <c r="F45" s="109"/>
       <c r="G45" s="109"/>
       <c r="H45" s="109"/>
-      <c r="I45" s="116"/>
+      <c r="I45" s="115"/>
       <c r="J45" s="103"/>
       <c r="K45" s="36"/>
       <c r="L45" s="37"/>
@@ -2485,7 +2473,7 @@
       <c r="C46" s="67"/>
       <c r="D46" s="67"/>
       <c r="E46" s="98"/>
-      <c r="F46" s="131"/>
+      <c r="F46" s="130"/>
       <c r="G46" s="73"/>
       <c r="H46" s="73"/>
       <c r="I46" s="72"/>
@@ -2536,8 +2524,8 @@
       <c r="D48" s="106"/>
       <c r="E48" s="101"/>
       <c r="F48" s="65"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="133"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="132"/>
       <c r="I48" s="66"/>
       <c r="J48" s="104"/>
       <c r="K48" s="48"/>
@@ -2560,10 +2548,10 @@
       <c r="C49" s="76"/>
       <c r="D49" s="77"/>
       <c r="E49" s="107"/>
-      <c r="F49" s="134"/>
+      <c r="F49" s="133"/>
       <c r="G49" s="108"/>
       <c r="H49" s="86"/>
-      <c r="I49" s="116"/>
+      <c r="I49" s="115"/>
       <c r="J49" s="103"/>
       <c r="K49" s="36"/>
       <c r="L49" s="37"/>
@@ -2585,10 +2573,10 @@
       <c r="C50" s="67"/>
       <c r="D50" s="67"/>
       <c r="E50" s="98"/>
-      <c r="F50" s="131"/>
+      <c r="F50" s="130"/>
       <c r="G50" s="73"/>
       <c r="H50" s="73"/>
-      <c r="I50" s="135"/>
+      <c r="I50" s="134"/>
       <c r="J50" s="67"/>
       <c r="K50" s="72"/>
       <c r="L50" s="73"/>
@@ -2613,7 +2601,7 @@
       <c r="F51" s="65"/>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
-      <c r="I51" s="136"/>
+      <c r="I51" s="135"/>
       <c r="J51" s="103"/>
       <c r="K51" s="36"/>
       <c r="L51" s="37"/>
@@ -2636,8 +2624,8 @@
       <c r="D52" s="106"/>
       <c r="E52" s="101"/>
       <c r="F52" s="65"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="133"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="132"/>
       <c r="I52" s="66"/>
       <c r="J52" s="104"/>
       <c r="K52" s="48"/>
@@ -2656,103 +2644,103 @@
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="76"/>
-      <c r="B53" s="137"/>
+      <c r="B53" s="136"/>
       <c r="C53" s="76"/>
-      <c r="D53" s="137"/>
+      <c r="D53" s="136"/>
       <c r="E53" s="107"/>
-      <c r="F53" s="134"/>
+      <c r="F53" s="133"/>
       <c r="G53" s="108"/>
       <c r="H53" s="86"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="138"/>
-      <c r="K53" s="139"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
-      <c r="N53" s="134"/>
-      <c r="O53" s="134"/>
-      <c r="P53" s="134"/>
-      <c r="Q53" s="134"/>
-      <c r="R53" s="134"/>
-      <c r="S53" s="134"/>
-      <c r="T53" s="134"/>
-      <c r="U53" s="134"/>
-      <c r="V53" s="134"/>
-      <c r="W53" s="116"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="133"/>
+      <c r="N53" s="133"/>
+      <c r="O53" s="133"/>
+      <c r="P53" s="133"/>
+      <c r="Q53" s="133"/>
+      <c r="R53" s="133"/>
+      <c r="S53" s="133"/>
+      <c r="T53" s="133"/>
+      <c r="U53" s="133"/>
+      <c r="V53" s="133"/>
+      <c r="W53" s="115"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="140"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="140"/>
-      <c r="L54" s="140"/>
-      <c r="M54" s="140"/>
-      <c r="N54" s="140"/>
-      <c r="O54" s="140"/>
-      <c r="P54" s="140"/>
-      <c r="Q54" s="140"/>
-      <c r="R54" s="140"/>
-      <c r="S54" s="140"/>
-      <c r="T54" s="140"/>
-      <c r="U54" s="140"/>
-      <c r="V54" s="140"/>
-      <c r="W54" s="140"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="139"/>
+      <c r="K54" s="139"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="139"/>
+      <c r="N54" s="139"/>
+      <c r="O54" s="139"/>
+      <c r="P54" s="139"/>
+      <c r="Q54" s="139"/>
+      <c r="R54" s="139"/>
+      <c r="S54" s="139"/>
+      <c r="T54" s="139"/>
+      <c r="U54" s="139"/>
+      <c r="V54" s="139"/>
+      <c r="W54" s="139"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="142"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="143"/>
-      <c r="K55" s="143"/>
-      <c r="L55" s="143"/>
-      <c r="M55" s="143"/>
-      <c r="N55" s="143"/>
-      <c r="O55" s="143"/>
-      <c r="P55" s="143"/>
-      <c r="Q55" s="143"/>
-      <c r="R55" s="143"/>
-      <c r="S55" s="143"/>
-      <c r="T55" s="143"/>
-      <c r="U55" s="143"/>
-      <c r="V55" s="143"/>
-      <c r="W55" s="143"/>
+      <c r="A55" s="141"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="142"/>
+      <c r="F55" s="142"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142"/>
+      <c r="J55" s="142"/>
+      <c r="K55" s="142"/>
+      <c r="L55" s="142"/>
+      <c r="M55" s="142"/>
+      <c r="N55" s="142"/>
+      <c r="O55" s="142"/>
+      <c r="P55" s="142"/>
+      <c r="Q55" s="142"/>
+      <c r="R55" s="142"/>
+      <c r="S55" s="142"/>
+      <c r="T55" s="142"/>
+      <c r="U55" s="142"/>
+      <c r="V55" s="142"/>
+      <c r="W55" s="142"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="142"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
-      <c r="K56" s="143"/>
-      <c r="L56" s="143"/>
-      <c r="M56" s="143"/>
-      <c r="N56" s="143"/>
-      <c r="O56" s="143"/>
-      <c r="P56" s="143"/>
-      <c r="Q56" s="143"/>
-      <c r="R56" s="143"/>
-      <c r="S56" s="143"/>
-      <c r="T56" s="143"/>
-      <c r="U56" s="143"/>
-      <c r="V56" s="143"/>
-      <c r="W56" s="143"/>
+      <c r="A56" s="141"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="142"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="142"/>
+      <c r="L56" s="142"/>
+      <c r="M56" s="142"/>
+      <c r="N56" s="142"/>
+      <c r="O56" s="142"/>
+      <c r="P56" s="142"/>
+      <c r="Q56" s="142"/>
+      <c r="R56" s="142"/>
+      <c r="S56" s="142"/>
+      <c r="T56" s="142"/>
+      <c r="U56" s="142"/>
+      <c r="V56" s="142"/>
+      <c r="W56" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V6.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V6.xlsx
@@ -94,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="74">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -589,6 +589,27 @@
       <left/>
       <right/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -630,7 +651,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1195,12 +1216,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="44" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="61" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1289,9 +1318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>282600</xdr:colOff>
+      <xdr:colOff>281520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1301,7 +1330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3768840" y="676080"/>
-          <a:ext cx="241200" cy="201600"/>
+          <a:ext cx="240120" cy="200520"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1331,7 +1360,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2696,54 +2725,154 @@
       <c r="A55" s="141"/>
       <c r="B55" s="141"/>
       <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="142"/>
-      <c r="J55" s="142"/>
-      <c r="K55" s="142"/>
-      <c r="L55" s="142"/>
-      <c r="M55" s="142"/>
-      <c r="N55" s="142"/>
-      <c r="O55" s="142"/>
-      <c r="P55" s="142"/>
-      <c r="Q55" s="142"/>
-      <c r="R55" s="142"/>
-      <c r="S55" s="142"/>
-      <c r="T55" s="142"/>
-      <c r="U55" s="142"/>
-      <c r="V55" s="142"/>
-      <c r="W55" s="142"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="143"/>
+      <c r="G55" s="143"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="143"/>
+      <c r="J55" s="143"/>
+      <c r="K55" s="143"/>
+      <c r="L55" s="143"/>
+      <c r="M55" s="143"/>
+      <c r="N55" s="143"/>
+      <c r="O55" s="143"/>
+      <c r="P55" s="143"/>
+      <c r="Q55" s="143"/>
+      <c r="R55" s="143"/>
+      <c r="S55" s="143"/>
+      <c r="T55" s="143"/>
+      <c r="U55" s="143"/>
+      <c r="V55" s="143"/>
+      <c r="W55" s="144"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="141"/>
       <c r="B56" s="141"/>
       <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="142"/>
-      <c r="L56" s="142"/>
-      <c r="M56" s="142"/>
-      <c r="N56" s="142"/>
-      <c r="O56" s="142"/>
-      <c r="P56" s="142"/>
-      <c r="Q56" s="142"/>
-      <c r="R56" s="142"/>
-      <c r="S56" s="142"/>
-      <c r="T56" s="142"/>
-      <c r="U56" s="142"/>
-      <c r="V56" s="142"/>
-      <c r="W56" s="142"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
+      <c r="K56" s="143"/>
+      <c r="L56" s="143"/>
+      <c r="M56" s="143"/>
+      <c r="N56" s="143"/>
+      <c r="O56" s="143"/>
+      <c r="P56" s="143"/>
+      <c r="Q56" s="143"/>
+      <c r="R56" s="143"/>
+      <c r="S56" s="143"/>
+      <c r="T56" s="143"/>
+      <c r="U56" s="143"/>
+      <c r="V56" s="143"/>
+      <c r="W56" s="144"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="141"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="143"/>
+      <c r="K57" s="143"/>
+      <c r="L57" s="143"/>
+      <c r="M57" s="143"/>
+      <c r="N57" s="143"/>
+      <c r="O57" s="143"/>
+      <c r="P57" s="143"/>
+      <c r="Q57" s="143"/>
+      <c r="R57" s="143"/>
+      <c r="S57" s="143"/>
+      <c r="T57" s="143"/>
+      <c r="U57" s="143"/>
+      <c r="V57" s="143"/>
+      <c r="W57" s="144"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="141"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="143"/>
+      <c r="K58" s="143"/>
+      <c r="L58" s="143"/>
+      <c r="M58" s="143"/>
+      <c r="N58" s="143"/>
+      <c r="O58" s="143"/>
+      <c r="P58" s="143"/>
+      <c r="Q58" s="143"/>
+      <c r="R58" s="143"/>
+      <c r="S58" s="143"/>
+      <c r="T58" s="143"/>
+      <c r="U58" s="143"/>
+      <c r="V58" s="143"/>
+      <c r="W58" s="144"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="141"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="143"/>
+      <c r="J59" s="143"/>
+      <c r="K59" s="143"/>
+      <c r="L59" s="143"/>
+      <c r="M59" s="143"/>
+      <c r="N59" s="143"/>
+      <c r="O59" s="143"/>
+      <c r="P59" s="143"/>
+      <c r="Q59" s="143"/>
+      <c r="R59" s="143"/>
+      <c r="S59" s="143"/>
+      <c r="T59" s="143"/>
+      <c r="U59" s="143"/>
+      <c r="V59" s="143"/>
+      <c r="W59" s="144"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="141"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="143"/>
+      <c r="I60" s="143"/>
+      <c r="J60" s="143"/>
+      <c r="K60" s="143"/>
+      <c r="L60" s="143"/>
+      <c r="M60" s="143"/>
+      <c r="N60" s="143"/>
+      <c r="O60" s="143"/>
+      <c r="P60" s="143"/>
+      <c r="Q60" s="143"/>
+      <c r="R60" s="143"/>
+      <c r="S60" s="143"/>
+      <c r="T60" s="143"/>
+      <c r="U60" s="143"/>
+      <c r="V60" s="143"/>
+      <c r="W60" s="144"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="E4:I4"/>
@@ -2765,8 +2894,7 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="C55:W56"/>
+    <mergeCell ref="A55:B60"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.511805555555555" footer="0.511805555555555"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V6.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_V6.xlsx
@@ -94,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="74">
+  <borders count="73">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -589,13 +589,6 @@
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -651,7 +644,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1216,11 +1209,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="71" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="72" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="71" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1228,7 +1225,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1318,9 +1315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>281520</xdr:colOff>
+      <xdr:colOff>281160</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1330,7 +1327,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3768840" y="676080"/>
-          <a:ext cx="240120" cy="200520"/>
+          <a:ext cx="239760" cy="200160"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2723,156 +2720,156 @@
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="141"/>
-      <c r="B55" s="141"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="143"/>
-      <c r="K55" s="143"/>
-      <c r="L55" s="143"/>
-      <c r="M55" s="143"/>
-      <c r="N55" s="143"/>
-      <c r="O55" s="143"/>
-      <c r="P55" s="143"/>
-      <c r="Q55" s="143"/>
-      <c r="R55" s="143"/>
-      <c r="S55" s="143"/>
-      <c r="T55" s="143"/>
-      <c r="U55" s="143"/>
-      <c r="V55" s="143"/>
-      <c r="W55" s="144"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="144"/>
+      <c r="O55" s="144"/>
+      <c r="P55" s="144"/>
+      <c r="Q55" s="144"/>
+      <c r="R55" s="144"/>
+      <c r="S55" s="144"/>
+      <c r="T55" s="144"/>
+      <c r="U55" s="144"/>
+      <c r="V55" s="144"/>
+      <c r="W55" s="145"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="141"/>
-      <c r="B56" s="141"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
-      <c r="K56" s="143"/>
-      <c r="L56" s="143"/>
-      <c r="M56" s="143"/>
-      <c r="N56" s="143"/>
-      <c r="O56" s="143"/>
-      <c r="P56" s="143"/>
-      <c r="Q56" s="143"/>
-      <c r="R56" s="143"/>
-      <c r="S56" s="143"/>
-      <c r="T56" s="143"/>
-      <c r="U56" s="143"/>
-      <c r="V56" s="143"/>
-      <c r="W56" s="144"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="144"/>
+      <c r="L56" s="144"/>
+      <c r="M56" s="144"/>
+      <c r="N56" s="144"/>
+      <c r="O56" s="144"/>
+      <c r="P56" s="144"/>
+      <c r="Q56" s="144"/>
+      <c r="R56" s="144"/>
+      <c r="S56" s="144"/>
+      <c r="T56" s="144"/>
+      <c r="U56" s="144"/>
+      <c r="V56" s="144"/>
+      <c r="W56" s="145"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="141"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="143"/>
-      <c r="K57" s="143"/>
-      <c r="L57" s="143"/>
-      <c r="M57" s="143"/>
-      <c r="N57" s="143"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="143"/>
-      <c r="Q57" s="143"/>
-      <c r="R57" s="143"/>
-      <c r="S57" s="143"/>
-      <c r="T57" s="143"/>
-      <c r="U57" s="143"/>
-      <c r="V57" s="143"/>
-      <c r="W57" s="144"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="144"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="144"/>
+      <c r="P57" s="144"/>
+      <c r="Q57" s="144"/>
+      <c r="R57" s="144"/>
+      <c r="S57" s="144"/>
+      <c r="T57" s="144"/>
+      <c r="U57" s="144"/>
+      <c r="V57" s="144"/>
+      <c r="W57" s="145"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="141"/>
-      <c r="B58" s="141"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="143"/>
-      <c r="K58" s="143"/>
-      <c r="L58" s="143"/>
-      <c r="M58" s="143"/>
-      <c r="N58" s="143"/>
-      <c r="O58" s="143"/>
-      <c r="P58" s="143"/>
-      <c r="Q58" s="143"/>
-      <c r="R58" s="143"/>
-      <c r="S58" s="143"/>
-      <c r="T58" s="143"/>
-      <c r="U58" s="143"/>
-      <c r="V58" s="143"/>
-      <c r="W58" s="144"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="142"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="144"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="144"/>
+      <c r="K58" s="144"/>
+      <c r="L58" s="144"/>
+      <c r="M58" s="144"/>
+      <c r="N58" s="144"/>
+      <c r="O58" s="144"/>
+      <c r="P58" s="144"/>
+      <c r="Q58" s="144"/>
+      <c r="R58" s="144"/>
+      <c r="S58" s="144"/>
+      <c r="T58" s="144"/>
+      <c r="U58" s="144"/>
+      <c r="V58" s="144"/>
+      <c r="W58" s="145"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="141"/>
-      <c r="B59" s="141"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="143"/>
-      <c r="E59" s="143"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="143"/>
-      <c r="K59" s="143"/>
-      <c r="L59" s="143"/>
-      <c r="M59" s="143"/>
-      <c r="N59" s="143"/>
-      <c r="O59" s="143"/>
-      <c r="P59" s="143"/>
-      <c r="Q59" s="143"/>
-      <c r="R59" s="143"/>
-      <c r="S59" s="143"/>
-      <c r="T59" s="143"/>
-      <c r="U59" s="143"/>
-      <c r="V59" s="143"/>
-      <c r="W59" s="144"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="144"/>
+      <c r="L59" s="144"/>
+      <c r="M59" s="144"/>
+      <c r="N59" s="144"/>
+      <c r="O59" s="144"/>
+      <c r="P59" s="144"/>
+      <c r="Q59" s="144"/>
+      <c r="R59" s="144"/>
+      <c r="S59" s="144"/>
+      <c r="T59" s="144"/>
+      <c r="U59" s="144"/>
+      <c r="V59" s="144"/>
+      <c r="W59" s="145"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="141"/>
-      <c r="B60" s="141"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="143"/>
-      <c r="E60" s="143"/>
-      <c r="F60" s="143"/>
-      <c r="G60" s="143"/>
-      <c r="H60" s="143"/>
-      <c r="I60" s="143"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="143"/>
-      <c r="L60" s="143"/>
-      <c r="M60" s="143"/>
-      <c r="N60" s="143"/>
-      <c r="O60" s="143"/>
-      <c r="P60" s="143"/>
-      <c r="Q60" s="143"/>
-      <c r="R60" s="143"/>
-      <c r="S60" s="143"/>
-      <c r="T60" s="143"/>
-      <c r="U60" s="143"/>
-      <c r="V60" s="143"/>
-      <c r="W60" s="144"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
+      <c r="N60" s="144"/>
+      <c r="O60" s="144"/>
+      <c r="P60" s="144"/>
+      <c r="Q60" s="144"/>
+      <c r="R60" s="144"/>
+      <c r="S60" s="144"/>
+      <c r="T60" s="144"/>
+      <c r="U60" s="144"/>
+      <c r="V60" s="144"/>
+      <c r="W60" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="E4:I4"/>
@@ -2894,7 +2891,6 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A55:B60"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.511805555555555" footer="0.511805555555555"/>
